--- a/Electromechanical Library/Electromechanical DataBase.xlsx
+++ b/Electromechanical Library/Electromechanical DataBase.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -214,6 +214,66 @@
   </si>
   <si>
     <t>R40N-1A</t>
+  </si>
+  <si>
+    <t>K0015</t>
+  </si>
+  <si>
+    <t>34.51</t>
+  </si>
+  <si>
+    <t>34.51.7.005.0010</t>
+  </si>
+  <si>
+    <t>Finder</t>
+  </si>
+  <si>
+    <t>6 A</t>
+  </si>
+  <si>
+    <t>34.51.7.005.00</t>
+  </si>
+  <si>
+    <t>K0016</t>
+  </si>
+  <si>
+    <t>K0017</t>
+  </si>
+  <si>
+    <t>K0018</t>
+  </si>
+  <si>
+    <t>K0019</t>
+  </si>
+  <si>
+    <t>60VDC</t>
+  </si>
+  <si>
+    <t>34.51.7.012.00</t>
+  </si>
+  <si>
+    <t>34.51.7.024.00</t>
+  </si>
+  <si>
+    <t>34.51.7.048.00</t>
+  </si>
+  <si>
+    <t>34.51.7.060.00</t>
+  </si>
+  <si>
+    <t>34.51.7.012.0010</t>
+  </si>
+  <si>
+    <t>34.51.7.024.0010</t>
+  </si>
+  <si>
+    <t>34.51.7.048.0010</t>
+  </si>
+  <si>
+    <t>34.51.7.060.0010</t>
+  </si>
+  <si>
+    <t>Ultra-Slim PCB relays 34 Series (Finder)</t>
   </si>
 </sst>
 </file>
@@ -577,17 +637,17 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+      <selection activeCell="O15" sqref="O15:O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.54296875" customWidth="1"/>
     <col min="5" max="5" width="7.81640625" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.54296875" customWidth="1"/>
-    <col min="7" max="7" width="81.81640625" customWidth="1"/>
+    <col min="7" max="7" width="88.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.1796875" bestFit="1" customWidth="1"/>
@@ -771,7 +831,7 @@
         <v>32</v>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q15" ca="1" si="3">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\Relays Terminology.pdf")</f>
+        <f t="shared" ref="Q3:Q20" ca="1" si="3">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\Relays Terminology.pdf")</f>
         <v>C:\Altium Libraries\Electromechanical Library\DataSheet\Relays Terminology.pdf</v>
       </c>
       <c r="R3" s="6" t="str">
@@ -1495,8 +1555,8 @@
         <v>61</v>
       </c>
       <c r="O15" t="str">
-        <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\R40N Series (Relpol).pdf")</f>
-        <v>C:\Altium Libraries\Electromechanical Library\DataSheet\R40N Series (Relpol).pdf</v>
+        <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\34 Series (Finder).pdf")</f>
+        <v>C:\Altium Libraries\Electromechanical Library\DataSheet\34 Series (Finder).pdf</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>32</v>
@@ -1506,59 +1566,344 @@
         <v>C:\Altium Libraries\Electromechanical Library\DataSheet\Relays Terminology.pdf</v>
       </c>
       <c r="R15" s="6" t="str">
-        <f t="shared" ref="R15" si="14">CONCATENATE("PCB Power Relays ",C15," (Current:",E15,", Coil: ",F15,", Form:",D15,"; Size: 29X12.7X15.7mm)")</f>
-        <v>PCB Power Relays R40N-1A (Current:40 A, Coil: 220VAC, Form:SPST-NO(1A); Size: 29X12.7X15.7mm)</v>
+        <f>CONCATENATE("PCB Power Relays ",C15," (Current:",E15,", Coil: ",F15,", Form:",D15,"; 32.5X22.4.5X20.5mm)")</f>
+        <v>PCB Power Relays R40N-1A (Current:40 A, Coil: 220VAC, Form:SPST-NO(1A); 32.5X22.4.5X20.5mm)</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L20" s="6"/>
-    </row>
-    <row r="21" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="6" t="str">
+        <f>CONCATENATE("PCB Power Relays ",C16," (Current:",E16,", Coil: ",F16,", Form:",D16,"; Size: 28X5X15mm)")</f>
+        <v>PCB Power Relays 34.51.7.005.00 (Current:6 A, Coil: 5VDC, Form:SPDT (1C); Size: 28X5X15mm)</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" ref="O16:O20" ca="1" si="14">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\34 Series (Finder).pdf")</f>
+        <v>C:\Altium Libraries\Electromechanical Library\DataSheet\34 Series (Finder).pdf</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>C:\Altium Libraries\Electromechanical Library\DataSheet\Relays Terminology.pdf</v>
+      </c>
+      <c r="R16" s="6" t="str">
+        <f>CONCATENATE("PCB Power Relays ",C16," (Current:",E16,", Coil: ",F16,", Form:",D16,"; Size: 28X5X15mm)")</f>
+        <v>PCB Power Relays 34.51.7.005.00 (Current:6 A, Coil: 5VDC, Form:SPDT (1C); Size: 28X5X15mm)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="6" t="str">
+        <f t="shared" ref="G17:G20" si="15">CONCATENATE("PCB Power Relays ",C17," (Current:",E17,", Coil: ",F17,", Form:",D17,"; Size: 28X5X15mm)")</f>
+        <v>PCB Power Relays 34.51.7.012.00 (Current:6 A, Coil: 12VDC, Form:SPDT (1C); Size: 28X5X15mm)</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>C:\Altium Libraries\Electromechanical Library\DataSheet\34 Series (Finder).pdf</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>C:\Altium Libraries\Electromechanical Library\DataSheet\Relays Terminology.pdf</v>
+      </c>
+      <c r="R17" s="6" t="str">
+        <f t="shared" ref="R17:R20" si="16">CONCATENATE("PCB Power Relays ",C17," (Current:",E17,", Coil: ",F17,", Form:",D17,"; Size: 28X5X15mm)")</f>
+        <v>PCB Power Relays 34.51.7.012.00 (Current:6 A, Coil: 12VDC, Form:SPDT (1C); Size: 28X5X15mm)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>PCB Power Relays 34.51.7.024.00 (Current:6 A, Coil: 24VDC, Form:SPDT (1C); Size: 28X5X15mm)</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>C:\Altium Libraries\Electromechanical Library\DataSheet\34 Series (Finder).pdf</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>C:\Altium Libraries\Electromechanical Library\DataSheet\Relays Terminology.pdf</v>
+      </c>
+      <c r="R18" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>PCB Power Relays 34.51.7.024.00 (Current:6 A, Coil: 24VDC, Form:SPDT (1C); Size: 28X5X15mm)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>PCB Power Relays 34.51.7.048.00 (Current:6 A, Coil: 48VDC, Form:SPDT (1C); Size: 28X5X15mm)</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>C:\Altium Libraries\Electromechanical Library\DataSheet\34 Series (Finder).pdf</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>C:\Altium Libraries\Electromechanical Library\DataSheet\Relays Terminology.pdf</v>
+      </c>
+      <c r="R19" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>PCB Power Relays 34.51.7.048.00 (Current:6 A, Coil: 48VDC, Form:SPDT (1C); Size: 28X5X15mm)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>PCB Power Relays 34.51.7.060.00 (Current:6 A, Coil: 60VDC, Form:SPDT (1C); Size: 28X5X15mm)</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>C:\Altium Libraries\Electromechanical Library\DataSheet\34 Series (Finder).pdf</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>C:\Altium Libraries\Electromechanical Library\DataSheet\Relays Terminology.pdf</v>
+      </c>
+      <c r="R20" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>PCB Power Relays 34.51.7.060.00 (Current:6 A, Coil: 60VDC, Form:SPDT (1C); Size: 28X5X15mm)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="L30" s="6"/>
     </row>
-    <row r="31" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="L32" s="6"/>
     </row>
     <row r="33" spans="12:12" x14ac:dyDescent="0.35">
